--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H2">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I2">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J2">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>18372.97365823368</v>
+        <v>21715.06070511875</v>
       </c>
       <c r="R2">
-        <v>18372.97365823368</v>
+        <v>195435.5463460687</v>
       </c>
       <c r="S2">
-        <v>0.05047079421758968</v>
+        <v>0.05070834305044219</v>
       </c>
       <c r="T2">
-        <v>0.05047079421758968</v>
+        <v>0.05842078862636627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H3">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I3">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J3">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>20577.1242290385</v>
+        <v>23238.24273153657</v>
       </c>
       <c r="R3">
-        <v>20577.1242290385</v>
+        <v>209144.1845838291</v>
       </c>
       <c r="S3">
-        <v>0.05652562409722756</v>
+        <v>0.05426523095293172</v>
       </c>
       <c r="T3">
-        <v>0.05652562409722756</v>
+        <v>0.06251865859842028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H4">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I4">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J4">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>10586.37401010029</v>
+        <v>11668.68084991177</v>
       </c>
       <c r="R4">
-        <v>10586.37401010029</v>
+        <v>105018.127649206</v>
       </c>
       <c r="S4">
-        <v>0.02908090514432152</v>
+        <v>0.02724834526223425</v>
       </c>
       <c r="T4">
-        <v>0.02908090514432152</v>
+        <v>0.0313926609157732</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H5">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I5">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J5">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>12594.80816298152</v>
+        <v>13331.54459588028</v>
       </c>
       <c r="R5">
-        <v>12594.80816298152</v>
+        <v>119983.9013629225</v>
       </c>
       <c r="S5">
-        <v>0.03459809951444573</v>
+        <v>0.0311314136276309</v>
       </c>
       <c r="T5">
-        <v>0.03459809951444573</v>
+        <v>0.03586632151183933</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H6">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I6">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J6">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>24852.6320493094</v>
+        <v>26591.16416253338</v>
       </c>
       <c r="R6">
-        <v>24852.6320493094</v>
+        <v>159546.9849752003</v>
       </c>
       <c r="S6">
-        <v>0.06827049890010871</v>
+        <v>0.06209487013529364</v>
       </c>
       <c r="T6">
-        <v>0.06827049890010871</v>
+        <v>0.0476927603983834</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H7">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I7">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J7">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>48439.295284254</v>
+        <v>61738.09571416325</v>
       </c>
       <c r="R7">
-        <v>48439.295284254</v>
+        <v>555642.8614274693</v>
       </c>
       <c r="S7">
-        <v>0.1330633652348946</v>
+        <v>0.1441689055935662</v>
       </c>
       <c r="T7">
-        <v>0.1330633652348946</v>
+        <v>0.166096161962895</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H8">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I8">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J8">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>54250.41232693939</v>
+        <v>66068.65499806659</v>
       </c>
       <c r="R8">
-        <v>54250.41232693939</v>
+        <v>594617.8949825994</v>
       </c>
       <c r="S8">
-        <v>0.1490265782613427</v>
+        <v>0.1542814946740418</v>
       </c>
       <c r="T8">
-        <v>0.1490265782613427</v>
+        <v>0.1777468173303575</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H9">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I9">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J9">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>27910.3702102678</v>
+        <v>33175.23008351808</v>
       </c>
       <c r="R9">
-        <v>27910.3702102678</v>
+        <v>298577.0707516628</v>
       </c>
       <c r="S9">
-        <v>0.07667014483460569</v>
+        <v>0.07746977872623845</v>
       </c>
       <c r="T9">
-        <v>0.07667014483460569</v>
+        <v>0.08925248382489746</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H10">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I10">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J10">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>33205.49209963032</v>
+        <v>37902.91850688113</v>
       </c>
       <c r="R10">
-        <v>33205.49209963032</v>
+        <v>341126.2665619302</v>
       </c>
       <c r="S10">
-        <v>0.09121591255878163</v>
+        <v>0.0885097315802955</v>
       </c>
       <c r="T10">
-        <v>0.09121591255878163</v>
+        <v>0.101971549630111</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H11">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I11">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J11">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>65522.5444079337</v>
+        <v>75601.34694122817</v>
       </c>
       <c r="R11">
-        <v>65522.5444079337</v>
+        <v>453608.081647369</v>
       </c>
       <c r="S11">
-        <v>0.1799912696192058</v>
+        <v>0.1765419442215799</v>
       </c>
       <c r="T11">
-        <v>0.1799912696192058</v>
+        <v>0.1355953016356971</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H12">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I12">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J12">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>36.8676726684605</v>
+        <v>65.53883688919379</v>
       </c>
       <c r="R12">
-        <v>36.8676726684605</v>
+        <v>589.8495320027441</v>
       </c>
       <c r="S12">
-        <v>0.000101275969537868</v>
+        <v>0.0001530442796929791</v>
       </c>
       <c r="T12">
-        <v>0.000101275969537868</v>
+        <v>0.0001763214291092883</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H13">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I13">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J13">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>41.29057683563736</v>
+        <v>70.13599550355667</v>
       </c>
       <c r="R13">
-        <v>41.29057683563736</v>
+        <v>631.22395953201</v>
       </c>
       <c r="S13">
-        <v>0.000113425743995617</v>
+        <v>0.0001637794233446594</v>
       </c>
       <c r="T13">
-        <v>0.000113425743995617</v>
+        <v>0.0001886893259960911</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H14">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I14">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J14">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>21.24288528413407</v>
+        <v>35.21757462801645</v>
       </c>
       <c r="R14">
-        <v>21.24288528413407</v>
+        <v>316.958171652148</v>
       </c>
       <c r="S14">
-        <v>5.83544782519689E-05</v>
+        <v>8.223899900132659E-05</v>
       </c>
       <c r="T14">
-        <v>5.83544782519689E-05</v>
+        <v>9.474707490878173E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H15">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I15">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J15">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>25.27305994730834</v>
+        <v>40.23631057795991</v>
       </c>
       <c r="R15">
-        <v>25.27305994730834</v>
+        <v>362.1267952016391</v>
       </c>
       <c r="S15">
-        <v>6.942541972664182E-05</v>
+        <v>9.39585971035474E-05</v>
       </c>
       <c r="T15">
-        <v>6.942541972664182E-05</v>
+        <v>0.0001082491560719294</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H16">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I16">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J16">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>49.8699187397472</v>
+        <v>80.25554219755152</v>
       </c>
       <c r="R16">
-        <v>49.8699187397472</v>
+        <v>481.5332531853091</v>
       </c>
       <c r="S16">
-        <v>0.0001369933062106003</v>
+        <v>0.0001874102780883949</v>
       </c>
       <c r="T16">
-        <v>0.0001369933062106003</v>
+        <v>0.0001439428646777047</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1467,49 +1467,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>81.157058922622</v>
+        <v>0.06163166666666667</v>
       </c>
       <c r="H17">
-        <v>81.157058922622</v>
+        <v>0.184895</v>
       </c>
       <c r="I17">
-        <v>0.1306073326997538</v>
+        <v>8.844181716268947E-05</v>
       </c>
       <c r="J17">
-        <v>0.1306073326997538</v>
+        <v>9.253853089314783E-05</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>10042.62832547187</v>
+        <v>8.518672594235555</v>
       </c>
       <c r="R17">
-        <v>10042.62832547187</v>
+        <v>76.66805334812001</v>
       </c>
       <c r="S17">
-        <v>0.02758722877673551</v>
+        <v>1.989254269692518E-05</v>
       </c>
       <c r="T17">
-        <v>0.02758722877673551</v>
+        <v>2.29180833414729E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1529,49 +1529,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>81.157058922622</v>
+        <v>0.06163166666666667</v>
       </c>
       <c r="H18">
-        <v>81.157058922622</v>
+        <v>0.184895</v>
       </c>
       <c r="I18">
-        <v>0.1306073326997538</v>
+        <v>8.844181716268947E-05</v>
       </c>
       <c r="J18">
-        <v>0.1306073326997538</v>
+        <v>9.253853089314783E-05</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>11247.41233962897</v>
+        <v>9.116206681783332</v>
       </c>
       <c r="R18">
-        <v>11247.41233962897</v>
+        <v>82.04586013605</v>
       </c>
       <c r="S18">
-        <v>0.03089678591137577</v>
+        <v>2.128788595233515E-05</v>
       </c>
       <c r="T18">
-        <v>0.03089678591137577</v>
+        <v>2.452565023247627E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1591,49 +1591,49 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>81.157058922622</v>
+        <v>0.06163166666666667</v>
       </c>
       <c r="H19">
-        <v>81.157058922622</v>
+        <v>0.184895</v>
       </c>
       <c r="I19">
-        <v>0.1306073326997538</v>
+        <v>8.844181716268947E-05</v>
       </c>
       <c r="J19">
-        <v>0.1306073326997538</v>
+        <v>9.253853089314783E-05</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>5786.48951854499</v>
+        <v>4.577545193948889</v>
       </c>
       <c r="R19">
-        <v>5786.48951854499</v>
+        <v>41.19790674554</v>
       </c>
       <c r="S19">
-        <v>0.01589556090186004</v>
+        <v>1.068934299451197E-05</v>
       </c>
       <c r="T19">
-        <v>0.01589556090186004</v>
+        <v>1.2315130214685E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>81.157058922622</v>
+        <v>0.06163166666666667</v>
       </c>
       <c r="H20">
-        <v>81.157058922622</v>
+        <v>0.184895</v>
       </c>
       <c r="I20">
-        <v>0.1306073326997538</v>
+        <v>8.844181716268947E-05</v>
       </c>
       <c r="J20">
-        <v>0.1306073326997538</v>
+        <v>9.253853089314783E-05</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>6884.295354919827</v>
+        <v>5.229875482732779</v>
       </c>
       <c r="R20">
-        <v>6884.295354919827</v>
+        <v>47.06887934459501</v>
       </c>
       <c r="S20">
-        <v>0.01891124761045733</v>
+        <v>1.221264465666436E-05</v>
       </c>
       <c r="T20">
-        <v>0.01891124761045733</v>
+        <v>1.407011724571995E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06163166666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.184895</v>
+      </c>
+      <c r="I21">
+        <v>8.844181716268947E-05</v>
+      </c>
+      <c r="J21">
+        <v>9.253853089314783E-05</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>169.2560955</v>
+      </c>
+      <c r="N21">
+        <v>338.512191</v>
+      </c>
+      <c r="O21">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P21">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q21">
+        <v>10.4315352591575</v>
+      </c>
+      <c r="R21">
+        <v>62.58921155494501</v>
+      </c>
+      <c r="S21">
+        <v>2.435940086225282E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.870954985879372E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H22">
+        <v>185.101749</v>
+      </c>
+      <c r="I22">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J22">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N22">
+        <v>414.657256</v>
+      </c>
+      <c r="O22">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P22">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q22">
+        <v>12792.29722019012</v>
+      </c>
+      <c r="R22">
+        <v>76753.78332114074</v>
+      </c>
+      <c r="S22">
+        <v>0.02987217971219903</v>
+      </c>
+      <c r="T22">
+        <v>0.02294371026925767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H23">
+        <v>185.101749</v>
+      </c>
+      <c r="I23">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J23">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.91433</v>
+      </c>
+      <c r="N23">
+        <v>443.74299</v>
+      </c>
+      <c r="O23">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P23">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q23">
+        <v>13689.60059258158</v>
+      </c>
+      <c r="R23">
+        <v>82137.60355548949</v>
+      </c>
+      <c r="S23">
+        <v>0.03196753499788881</v>
+      </c>
+      <c r="T23">
+        <v>0.02455307473643751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H24">
+        <v>185.101749</v>
+      </c>
+      <c r="I24">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J24">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N24">
+        <v>222.817852</v>
+      </c>
+      <c r="O24">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P24">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q24">
+        <v>6873.995685603857</v>
+      </c>
+      <c r="R24">
+        <v>41243.97411362314</v>
+      </c>
+      <c r="S24">
+        <v>0.01605194367569482</v>
+      </c>
+      <c r="T24">
+        <v>0.01232890095406008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>81.157058922622</v>
-      </c>
-      <c r="H21">
-        <v>81.157058922622</v>
-      </c>
-      <c r="I21">
-        <v>0.1306073326997538</v>
-      </c>
-      <c r="J21">
-        <v>0.1306073326997538</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>167.384032901926</v>
-      </c>
-      <c r="N21">
-        <v>167.384032901926</v>
-      </c>
-      <c r="O21">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="P21">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="Q21">
-        <v>13584.39582092771</v>
-      </c>
-      <c r="R21">
-        <v>13584.39582092771</v>
-      </c>
-      <c r="S21">
-        <v>0.03731650949932513</v>
-      </c>
-      <c r="T21">
-        <v>0.03731650949932513</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H25">
+        <v>185.101749</v>
+      </c>
+      <c r="I25">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J25">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N25">
+        <v>254.570861</v>
+      </c>
+      <c r="O25">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P25">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q25">
+        <v>7853.585269255982</v>
+      </c>
+      <c r="R25">
+        <v>47121.51161553589</v>
+      </c>
+      <c r="S25">
+        <v>0.01833945119552241</v>
+      </c>
+      <c r="T25">
+        <v>0.01408585040600246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H26">
+        <v>185.101749</v>
+      </c>
+      <c r="I26">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J26">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>169.2560955</v>
+      </c>
+      <c r="N26">
+        <v>338.512191</v>
+      </c>
+      <c r="O26">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P26">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q26">
+        <v>15664.79965298052</v>
+      </c>
+      <c r="R26">
+        <v>62659.19861192206</v>
+      </c>
+      <c r="S26">
+        <v>0.03657995920004681</v>
+      </c>
+      <c r="T26">
+        <v>0.01873047081784483</v>
       </c>
     </row>
   </sheetData>
